--- a/www/IndicatorsPerCountry/Montenegro_GDPperCapita_TerritorialRef_2006_2012_CCode_499.xlsx
+++ b/www/IndicatorsPerCountry/Montenegro_GDPperCapita_TerritorialRef_2006_2012_CCode_499.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Montenegro_GDPperCapita_TerritorialRef_2006_2012_CCode_499.xlsx
+++ b/www/IndicatorsPerCountry/Montenegro_GDPperCapita_TerritorialRef_2006_2012_CCode_499.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1119.131315</t>
-  </si>
-  <si>
-    <t>984.8522971</t>
-  </si>
-  <si>
-    <t>992.4594021</t>
-  </si>
-  <si>
-    <t>1317.411331</t>
-  </si>
-  <si>
-    <t>1195.795969</t>
-  </si>
-  <si>
-    <t>1333.194368</t>
-  </si>
-  <si>
-    <t>1300.068846</t>
-  </si>
-  <si>
-    <t>1380.495364</t>
-  </si>
-  <si>
-    <t>1529.580637</t>
-  </si>
-  <si>
-    <t>1832.975168</t>
-  </si>
-  <si>
-    <t>1786.366155</t>
-  </si>
-  <si>
-    <t>2018.03126</t>
-  </si>
-  <si>
-    <t>2341.039504</t>
-  </si>
-  <si>
-    <t>2384.833463</t>
-  </si>
-  <si>
-    <t>2476.989141</t>
-  </si>
-  <si>
-    <t>2506.213237</t>
-  </si>
-  <si>
-    <t>2610.056693</t>
-  </si>
-  <si>
-    <t>2852.32074</t>
-  </si>
-  <si>
-    <t>3047.122271</t>
-  </si>
-  <si>
-    <t>3132.838037</t>
-  </si>
-  <si>
-    <t>3265.594879</t>
-  </si>
-  <si>
-    <t>3223.052869</t>
-  </si>
-  <si>
-    <t>3384.195271</t>
-  </si>
-  <si>
-    <t>3458.319215</t>
-  </si>
-  <si>
-    <t>3601.384303</t>
-  </si>
-  <si>
-    <t>3951.327265</t>
-  </si>
-  <si>
-    <t>4130.0091</t>
-  </si>
-  <si>
-    <t>4091.569516</t>
-  </si>
-  <si>
-    <t>5013.790219</t>
-  </si>
-  <si>
-    <t>4790.278911</t>
-  </si>
-  <si>
-    <t>4887.336395</t>
-  </si>
-  <si>
-    <t>4773.772209</t>
-  </si>
-  <si>
-    <t>4910.893859</t>
-  </si>
-  <si>
-    <t>4896.324708</t>
-  </si>
-  <si>
-    <t>5031.761701</t>
-  </si>
-  <si>
-    <t>4762.832716</t>
-  </si>
-  <si>
-    <t>4579.082553</t>
-  </si>
-  <si>
-    <t>4566.316918</t>
-  </si>
-  <si>
-    <t>4143.77661055</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2873.16771172</t>
-  </si>
-  <si>
-    <t>2919.1383951</t>
-  </si>
-  <si>
-    <t>3330.73690881</t>
-  </si>
-  <si>
-    <t>4253.35103256</t>
-  </si>
-  <si>
-    <t>4534.0722007</t>
-  </si>
-  <si>
-    <t>4667.78478571</t>
-  </si>
-  <si>
-    <t>4178.69704162</t>
-  </si>
-  <si>
-    <t>4298.82385596</t>
-  </si>
-  <si>
-    <t>4330.28564067</t>
-  </si>
-  <si>
-    <t>4489.02464533</t>
-  </si>
-  <si>
-    <t>4714.26242221</t>
-  </si>
-  <si>
-    <t>5011.00425525</t>
-  </si>
-  <si>
-    <t>5327.05218345</t>
-  </si>
-  <si>
-    <t>6260.18011625</t>
-  </si>
-  <si>
-    <t>6930.01938869</t>
-  </si>
-  <si>
-    <t>7408.19072651</t>
-  </si>
-  <si>
-    <t>7214.16536208</t>
-  </si>
-  <si>
-    <t>7324.41274207</t>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>2125</t>
+  </si>
+  <si>
+    <t>2072</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2439</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>2847</t>
+  </si>
+  <si>
+    <t>3217</t>
+  </si>
+  <si>
+    <t>3732</t>
+  </si>
+  <si>
+    <t>3802</t>
+  </si>
+  <si>
+    <t>3948</t>
+  </si>
+  <si>
+    <t>3995</t>
+  </si>
+  <si>
+    <t>4160</t>
+  </si>
+  <si>
+    <t>4546</t>
+  </si>
+  <si>
+    <t>4857</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>5206</t>
+  </si>
+  <si>
+    <t>5137</t>
+  </si>
+  <si>
+    <t>5394</t>
+  </si>
+  <si>
+    <t>5512</t>
+  </si>
+  <si>
+    <t>5740</t>
+  </si>
+  <si>
+    <t>6298</t>
+  </si>
+  <si>
+    <t>6583</t>
+  </si>
+  <si>
+    <t>6523</t>
+  </si>
+  <si>
+    <t>7992</t>
+  </si>
+  <si>
+    <t>7635</t>
+  </si>
+  <si>
+    <t>7790</t>
+  </si>
+  <si>
+    <t>7610</t>
+  </si>
+  <si>
+    <t>7828</t>
+  </si>
+  <si>
+    <t>7804</t>
+  </si>
+  <si>
+    <t>8021</t>
+  </si>
+  <si>
+    <t>7592</t>
+  </si>
+  <si>
+    <t>7299</t>
+  </si>
+  <si>
+    <t>7278</t>
+  </si>
+  <si>
+    <t>6605</t>
+  </si>
+  <si>
+    <t>6068.21515512111</t>
+  </si>
+  <si>
+    <t>4605.29885365734</t>
+  </si>
+  <si>
+    <t>2981.80459571749</t>
+  </si>
+  <si>
+    <t>3073.92072623232</t>
+  </si>
+  <si>
+    <t>3571.07237599629</t>
+  </si>
+  <si>
+    <t>4663.16006868561</t>
+  </si>
+  <si>
+    <t>5121.72820568113</t>
+  </si>
+  <si>
+    <t>5522.10439400571</t>
+  </si>
+  <si>
+    <t>5142.72906840197</t>
+  </si>
+  <si>
+    <t>6046.14222843826</t>
+  </si>
+  <si>
+    <t>6429.56114185043</t>
+  </si>
+  <si>
+    <t>6897.7249603766</t>
+  </si>
+  <si>
+    <t>7445.05011825545</t>
+  </si>
+  <si>
+    <t>8193.74969155216</t>
+  </si>
+  <si>
+    <t>9002.21820467631</t>
+  </si>
+  <si>
+    <t>10307.6469729876</t>
+  </si>
+  <si>
+    <t>12027.4293764959</t>
+  </si>
+  <si>
+    <t>13550.3563815497</t>
+  </si>
+  <si>
+    <t>13459.4991586417</t>
+  </si>
+  <si>
+    <t>14509.7655644148</t>
+  </si>
+  <si>
+    <t>15747</t>
+  </si>
+  <si>
+    <t>15421</t>
+  </si>
+  <si>
+    <t>16064</t>
+  </si>
+  <si>
+    <t>16437</t>
+  </si>
+  <si>
+    <t>17249</t>
+  </si>
+  <si>
+    <t>17741</t>
   </si>
   <si>
     <t>Description</t>
@@ -1005,7 +1026,7 @@
         <v>1992.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1043,7 @@
         <v>1993.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1060,7 @@
         <v>1994.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1077,7 @@
         <v>1995.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1094,7 @@
         <v>1996.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1111,7 @@
         <v>1997.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1128,7 @@
         <v>1998.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1145,7 @@
         <v>1999.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1162,7 @@
         <v>2000.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1179,7 @@
         <v>2001.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1196,7 @@
         <v>2002.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1213,7 @@
         <v>2003.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1230,7 @@
         <v>2004.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1247,7 @@
         <v>2005.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1264,7 @@
         <v>2006.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1281,7 @@
         <v>2007.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1298,7 @@
         <v>2008.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1315,7 @@
         <v>2009.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1332,109 @@
         <v>2010.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
